--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1724.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1724.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4553085712514182</v>
+        <v>0.8858482241630554</v>
       </c>
       <c r="B1">
-        <v>0.9689253826165184</v>
+        <v>1.77877938747406</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.79989005922652</v>
+        <v>1.889378309249878</v>
       </c>
       <c r="E1">
-        <v>1.81793174719464</v>
+        <v>1.118734359741211</v>
       </c>
     </row>
   </sheetData>
